--- a/tailieuthamkhao/danh muc web TMDT tinh thanh.xlsx
+++ b/tailieuthamkhao/danh muc web TMDT tinh thanh.xlsx
@@ -971,7 +971,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="15">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1064,6 +1064,12 @@
     </font>
     <font>
       <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="Times New Roman"/>
@@ -1220,7 +1226,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1339,9 +1345,6 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1355,6 +1358,25 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1659,10 +1681,10 @@
   <dimension ref="A1:X718"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="L5" sqref="L5"/>
+      <selection pane="bottomRight" activeCell="A13" sqref="A13:XFD13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="16.5"/>
@@ -1691,52 +1713,52 @@
       <c r="B1" s="11"/>
       <c r="C1" s="29"/>
       <c r="D1" s="41"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
-      <c r="I1" s="52"/>
-      <c r="J1" s="52"/>
-      <c r="K1" s="52"/>
-      <c r="L1" s="52"/>
-      <c r="M1" s="52"/>
-      <c r="N1" s="52"/>
-      <c r="O1" s="52"/>
-      <c r="P1" s="52"/>
-      <c r="Q1" s="52"/>
-      <c r="R1" s="52"/>
-      <c r="S1" s="52"/>
-      <c r="T1" s="52"/>
-      <c r="U1" s="52"/>
-      <c r="V1" s="52"/>
-      <c r="W1" s="52"/>
-      <c r="X1" s="52"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="51"/>
+      <c r="J1" s="51"/>
+      <c r="K1" s="51"/>
+      <c r="L1" s="51"/>
+      <c r="M1" s="51"/>
+      <c r="N1" s="51"/>
+      <c r="O1" s="51"/>
+      <c r="P1" s="51"/>
+      <c r="Q1" s="51"/>
+      <c r="R1" s="51"/>
+      <c r="S1" s="51"/>
+      <c r="T1" s="51"/>
+      <c r="U1" s="51"/>
+      <c r="V1" s="51"/>
+      <c r="W1" s="51"/>
+      <c r="X1" s="51"/>
     </row>
     <row r="2" spans="1:24" ht="9.75" customHeight="1">
       <c r="A2" s="1"/>
       <c r="B2" s="11"/>
       <c r="C2" s="29"/>
       <c r="D2" s="41"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="52"/>
-      <c r="L2" s="52"/>
-      <c r="M2" s="52"/>
-      <c r="N2" s="52"/>
-      <c r="O2" s="52"/>
-      <c r="P2" s="52"/>
-      <c r="Q2" s="52"/>
-      <c r="R2" s="52"/>
-      <c r="S2" s="52"/>
-      <c r="T2" s="52"/>
-      <c r="U2" s="52"/>
-      <c r="V2" s="52"/>
-      <c r="W2" s="52"/>
-      <c r="X2" s="52"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="51"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="51"/>
+      <c r="L2" s="51"/>
+      <c r="M2" s="51"/>
+      <c r="N2" s="51"/>
+      <c r="O2" s="51"/>
+      <c r="P2" s="51"/>
+      <c r="Q2" s="51"/>
+      <c r="R2" s="51"/>
+      <c r="S2" s="51"/>
+      <c r="T2" s="51"/>
+      <c r="U2" s="51"/>
+      <c r="V2" s="51"/>
+      <c r="W2" s="51"/>
+      <c r="X2" s="51"/>
     </row>
     <row r="3" spans="1:24" s="42" customFormat="1" ht="37.5" customHeight="1">
       <c r="B3" s="43" t="s">
@@ -1750,15 +1772,15 @@
         <v>1</v>
       </c>
       <c r="F3" s="15"/>
-      <c r="G3" s="53" t="s">
+      <c r="G3" s="52" t="s">
         <v>316</v>
       </c>
-      <c r="H3" s="54"/>
-      <c r="I3" s="54"/>
-      <c r="J3" s="54"/>
-      <c r="K3" s="54"/>
-      <c r="L3" s="54"/>
-      <c r="M3" s="55"/>
+      <c r="H3" s="53"/>
+      <c r="I3" s="53"/>
+      <c r="J3" s="53"/>
+      <c r="K3" s="53"/>
+      <c r="L3" s="53"/>
+      <c r="M3" s="54"/>
       <c r="N3" s="45"/>
       <c r="O3" s="45"/>
       <c r="P3" s="45"/>
@@ -2034,39 +2056,39 @@
       <c r="R12" s="4"/>
       <c r="S12" s="5"/>
     </row>
-    <row r="13" spans="1:24" s="3" customFormat="1" ht="30" customHeight="1">
-      <c r="B13" s="12"/>
+    <row r="13" spans="1:24" s="56" customFormat="1" ht="30" customHeight="1">
+      <c r="B13" s="57"/>
       <c r="C13" s="49"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="36" t="s">
+      <c r="D13" s="58"/>
+      <c r="E13" s="59" t="s">
         <v>36</v>
       </c>
-      <c r="F13" s="16"/>
-      <c r="G13" s="4" t="s">
+      <c r="F13" s="58"/>
+      <c r="G13" s="60" t="s">
         <v>42</v>
       </c>
-      <c r="H13" s="4" t="s">
+      <c r="H13" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="I13" s="4" t="s">
+      <c r="I13" s="60" t="s">
         <v>44</v>
       </c>
-      <c r="J13" s="4" t="s">
+      <c r="J13" s="60" t="s">
         <v>46</v>
       </c>
-      <c r="K13" s="4" t="s">
+      <c r="K13" s="60" t="s">
         <v>48</v>
       </c>
-      <c r="L13" s="4" t="s">
+      <c r="L13" s="60" t="s">
         <v>19</v>
       </c>
-      <c r="M13" s="4"/>
-      <c r="N13" s="4"/>
-      <c r="O13" s="4"/>
-      <c r="P13" s="4"/>
-      <c r="Q13" s="4"/>
-      <c r="R13" s="4"/>
-      <c r="S13" s="5"/>
+      <c r="M13" s="60"/>
+      <c r="N13" s="60"/>
+      <c r="O13" s="60"/>
+      <c r="P13" s="60"/>
+      <c r="Q13" s="60"/>
+      <c r="R13" s="60"/>
+      <c r="S13" s="61"/>
     </row>
     <row r="14" spans="1:24" s="3" customFormat="1" ht="30" customHeight="1">
       <c r="B14" s="12"/>
@@ -2742,7 +2764,7 @@
     </row>
     <row r="36" spans="2:19" s="3" customFormat="1" ht="33.75" customHeight="1">
       <c r="B36" s="22"/>
-      <c r="C36" s="50"/>
+      <c r="C36" s="55"/>
       <c r="D36" s="23"/>
       <c r="E36" s="38" t="s">
         <v>119</v>
@@ -16766,19 +16788,6 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="C38:C43"/>
-    <mergeCell ref="C45:C50"/>
-    <mergeCell ref="E1:X2"/>
-    <mergeCell ref="C4:C10"/>
-    <mergeCell ref="C12:C19"/>
-    <mergeCell ref="C22:C27"/>
-    <mergeCell ref="G3:M3"/>
-    <mergeCell ref="C128:C134"/>
-    <mergeCell ref="C52:C54"/>
-    <mergeCell ref="C60:C63"/>
-    <mergeCell ref="C65:C67"/>
-    <mergeCell ref="C69:C73"/>
-    <mergeCell ref="C80:C86"/>
     <mergeCell ref="C192:C198"/>
     <mergeCell ref="C208:C214"/>
     <mergeCell ref="C216:C222"/>
@@ -16795,6 +16804,19 @@
     <mergeCell ref="C96:C102"/>
     <mergeCell ref="C112:C118"/>
     <mergeCell ref="C120:C126"/>
+    <mergeCell ref="C128:C134"/>
+    <mergeCell ref="C52:C54"/>
+    <mergeCell ref="C60:C63"/>
+    <mergeCell ref="C65:C67"/>
+    <mergeCell ref="C69:C73"/>
+    <mergeCell ref="C80:C86"/>
+    <mergeCell ref="C38:C43"/>
+    <mergeCell ref="C45:C50"/>
+    <mergeCell ref="E1:X2"/>
+    <mergeCell ref="C4:C10"/>
+    <mergeCell ref="C12:C19"/>
+    <mergeCell ref="C22:C27"/>
+    <mergeCell ref="G3:M3"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B3" location="'Danh mục trang chủ'!B4" display="lên đầu"/>
